--- a/Employee_Reports35/Eduard Embate Endonela Q0372.xlsx
+++ b/Employee_Reports35/Eduard Embate Endonela Q0372.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="4" t="n">
-        <v>-33</v>
+        <v>-34</v>
       </c>
       <c r="I18" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr">
@@ -1357,11 +1357,11 @@
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>-151</v>
+        <v>-152</v>
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
@@ -1406,11 +1406,11 @@
         </is>
       </c>
       <c r="H20" s="4" t="n">
-        <v>-237</v>
+        <v>-238</v>
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
@@ -1443,11 +1443,11 @@
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>-92</v>
+        <v>-93</v>
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
@@ -1480,11 +1480,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">

--- a/Employee_Reports35/Eduard Embate Endonela Q0372.xlsx
+++ b/Employee_Reports35/Eduard Embate Endonela Q0372.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="4" t="n">
-        <v>-34</v>
+        <v>-35</v>
       </c>
       <c r="I18" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr">
@@ -1357,11 +1357,11 @@
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>-152</v>
+        <v>-153</v>
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
@@ -1406,11 +1406,11 @@
         </is>
       </c>
       <c r="H20" s="4" t="n">
-        <v>-238</v>
+        <v>-239</v>
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
@@ -1443,11 +1443,11 @@
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>-93</v>
+        <v>-94</v>
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
@@ -1480,11 +1480,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
